--- a/seoul_bn_email_datas.xlsx
+++ b/seoul_bn_email_datas.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Project\macro\Extracting_company_emails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A49940-387D-4972-B685-4F7353F83884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E654D2D-E497-4307-9D3A-B231D64D1D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="drop_duplicated" sheetId="3" r:id="rId1"/>
-    <sheet name="all_data" sheetId="1" r:id="rId2"/>
+    <sheet name="seoul(0223)" sheetId="7" r:id="rId1"/>
+    <sheet name="seoul(0222)" sheetId="6" r:id="rId2"/>
+    <sheet name="seoul(0221)" sheetId="5" r:id="rId3"/>
+    <sheet name="seoul(0220)" sheetId="4" r:id="rId4"/>
+    <sheet name="drop_duplicated(seoul)" sheetId="3" r:id="rId5"/>
+    <sheet name="all_data" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1077">
   <si>
     <t>company_name</t>
   </si>
@@ -2754,6 +2758,504 @@
   </si>
   <si>
     <t>taeyang@taeyangmetal.com</t>
+  </si>
+  <si>
+    <t>chief@intlab.co.kr</t>
+  </si>
+  <si>
+    <t>Sales@cmesrobotics.ai</t>
+  </si>
+  <si>
+    <t>creativehg@naver.comAddr</t>
+  </si>
+  <si>
+    <t>champhelp@hackers.com</t>
+  </si>
+  <si>
+    <t>soonsoof@naver.com</t>
+  </si>
+  <si>
+    <t>lionkorea@lion-korea.com</t>
+  </si>
+  <si>
+    <t>hmlk@hm-link.com</t>
+  </si>
+  <si>
+    <t>biz@leecompany.kr</t>
+  </si>
+  <si>
+    <t>info@hri.co.kr</t>
+  </si>
+  <si>
+    <t>cs@topfield.kr</t>
+  </si>
+  <si>
+    <t>Jbp.info@jbpartners.co.kr</t>
+  </si>
+  <si>
+    <t>magicsplit.yes@gmail.com</t>
+  </si>
+  <si>
+    <t>online@ozkiz.com</t>
+  </si>
+  <si>
+    <t>admin@valuegroup.co.krHQ</t>
+  </si>
+  <si>
+    <t>contactus@careercare.co.kr</t>
+  </si>
+  <si>
+    <t>ibdental@hanmail.net</t>
+  </si>
+  <si>
+    <t>cs@donggubat.com</t>
+  </si>
+  <si>
+    <t>jacky.park@neobiotech.com</t>
+  </si>
+  <si>
+    <t>jojo330@daum.net</t>
+  </si>
+  <si>
+    <t>makeprem_on@magnifkorea.com</t>
+  </si>
+  <si>
+    <t>sales_grp@mlsoft.com</t>
+  </si>
+  <si>
+    <t>mutalica@gmail.com</t>
+  </si>
+  <si>
+    <t>hong@xation.co.kr</t>
+  </si>
+  <si>
+    <t>sales@christineproject.com</t>
+  </si>
+  <si>
+    <t>info@mop3d.co.kr</t>
+  </si>
+  <si>
+    <t>help@safeschoolbus.net</t>
+  </si>
+  <si>
+    <t>contact@trufflus.com</t>
+  </si>
+  <si>
+    <t>biz@sejinci.co.kr</t>
+  </si>
+  <si>
+    <t>info_kr@persolkelly.com</t>
+  </si>
+  <si>
+    <t>CRM@nepa.co.kr</t>
+  </si>
+  <si>
+    <t>linebacker06@3sq.co.kr</t>
+  </si>
+  <si>
+    <t>odong85@newsis.com</t>
+  </si>
+  <si>
+    <t>hello@atexmedical.com</t>
+  </si>
+  <si>
+    <t>forestmedia@oforest.com</t>
+  </si>
+  <si>
+    <t>awesomeofficial@awesomeent.kr</t>
+  </si>
+  <si>
+    <t>webmaster.kr@puma.com</t>
+  </si>
+  <si>
+    <t>webmaster@daiso.co.kr</t>
+  </si>
+  <si>
+    <t>km.kyung@toup.net</t>
+  </si>
+  <si>
+    <t>crifas@crifas.co.kr</t>
+  </si>
+  <si>
+    <t>info@cosmood.co.kr</t>
+  </si>
+  <si>
+    <t>info@a1mediagroup.co.kr</t>
+  </si>
+  <si>
+    <t>rayinc.info@rayinc.net</t>
+  </si>
+  <si>
+    <t>contact@sugarpole.com</t>
+  </si>
+  <si>
+    <t>cshelp@iparking.co.kr</t>
+  </si>
+  <si>
+    <t>easthan@easthan.co.kr</t>
+  </si>
+  <si>
+    <t>leestar1355@naver.com</t>
+  </si>
+  <si>
+    <t>sales@sj-intl.com</t>
+  </si>
+  <si>
+    <t>recruit@butfitseoul.com</t>
+  </si>
+  <si>
+    <t>contactkr@pmgasia.com</t>
+  </si>
+  <si>
+    <t>33nice@naver.com</t>
+  </si>
+  <si>
+    <t>ppooggrr@cooperstation.co.kr</t>
+  </si>
+  <si>
+    <t>.zzang@sportsseoul.com</t>
+  </si>
+  <si>
+    <t>webmaster@nibec.co.kr</t>
+  </si>
+  <si>
+    <t>order@heruelab.com</t>
+  </si>
+  <si>
+    <t>sales@torriden.com</t>
+  </si>
+  <si>
+    <t>reserved.contact@kiwivine.kr</t>
+  </si>
+  <si>
+    <t>yjhwang@moumoubeauty.com</t>
+  </si>
+  <si>
+    <t>ads@glinkmedia.co.kr</t>
+  </si>
+  <si>
+    <t>hoseohrd1@naver.com</t>
+  </si>
+  <si>
+    <t>homeent01@naver.com</t>
+  </si>
+  <si>
+    <t>lvfox@forwardernet.co</t>
+  </si>
+  <si>
+    <t>E-MAILxxjoker@itpla.co.kr</t>
+  </si>
+  <si>
+    <t>jhs4014@naver.com</t>
+  </si>
+  <si>
+    <t>cs@gentlemonster.com</t>
+  </si>
+  <si>
+    <t>admin@scoutncompany.com</t>
+  </si>
+  <si>
+    <t>jhtech@bill36524.com</t>
+  </si>
+  <si>
+    <t>cnet@cnettech.co.kr</t>
+  </si>
+  <si>
+    <t>contact@egnis.kr</t>
+  </si>
+  <si>
+    <t>info@artmu.co.kr</t>
+  </si>
+  <si>
+    <t>ch@washswat.com</t>
+  </si>
+  <si>
+    <t>help@nokchawon.co.kr</t>
+  </si>
+  <si>
+    <t>cheongsong@csgold.co</t>
+  </si>
+  <si>
+    <t>everbrain@everbrain.com</t>
+  </si>
+  <si>
+    <t>hr@manpowerpro.co.kr</t>
+  </si>
+  <si>
+    <t>zeniel@zeniel.co.kr</t>
+  </si>
+  <si>
+    <t>partner@waycos.co.kr</t>
+  </si>
+  <si>
+    <t>junsh@tbps.co.kr</t>
+  </si>
+  <si>
+    <t>info@saladykorea.com</t>
+  </si>
+  <si>
+    <t>02-2075-6066Olympia_usa@naver.comA</t>
+  </si>
+  <si>
+    <t>jallon-n@naver.com</t>
+  </si>
+  <si>
+    <t>geowide@theonetech.co.kr</t>
+  </si>
+  <si>
+    <t>contact@imcapsule.com</t>
+  </si>
+  <si>
+    <t>willvi@willvi.co.kr</t>
+  </si>
+  <si>
+    <t>reservehaus@naver.comOpen</t>
+  </si>
+  <si>
+    <t>marketing@kcube.co</t>
+  </si>
+  <si>
+    <t>segimedu@naver.com</t>
+  </si>
+  <si>
+    <t>jojeong@angel-robotics.com</t>
+  </si>
+  <si>
+    <t>master@haesung2002.com</t>
+  </si>
+  <si>
+    <t>asiagroup1225@gmail.com</t>
+  </si>
+  <si>
+    <t>info@unnet.co.kr</t>
+  </si>
+  <si>
+    <t>info@jooam.co.kr</t>
+  </si>
+  <si>
+    <t>business@triz-group.com</t>
+  </si>
+  <si>
+    <t>eduplex@eduplex.net</t>
+  </si>
+  <si>
+    <t>newkidson@newkidson.co.kr</t>
+  </si>
+  <si>
+    <t>mz@mz.co.kr</t>
+  </si>
+  <si>
+    <t>dsmoon@sllife.co.kr</t>
+  </si>
+  <si>
+    <t>webmaster@beautifulstore.org</t>
+  </si>
+  <si>
+    <t>tech@somansa.com</t>
+  </si>
+  <si>
+    <t>camiane_info@camiane.com</t>
+  </si>
+  <si>
+    <t>hr@besthr.co.kr</t>
+  </si>
+  <si>
+    <t>701yunojj@naver.com</t>
+  </si>
+  <si>
+    <t>answer@luvd.co.kr</t>
+  </si>
+  <si>
+    <t>webmaster@g-school.co.kr</t>
+  </si>
+  <si>
+    <t>growth@koworks.org</t>
+  </si>
+  <si>
+    <t>dalba@bmonument.com</t>
+  </si>
+  <si>
+    <t>info.hanafind@hanafn.comCopyright</t>
+  </si>
+  <si>
+    <t>Info@sugentech.com</t>
+  </si>
+  <si>
+    <t>doowon@doowonefc.co.kr</t>
+  </si>
+  <si>
+    <t>ys@prayforsouthkorea.orgCopyright</t>
+  </si>
+  <si>
+    <t>webmaster@kyohak.co.kr</t>
+  </si>
+  <si>
+    <t>kvoca@daum.net</t>
+  </si>
+  <si>
+    <t>siloam@siloam.co.kr</t>
+  </si>
+  <si>
+    <t>kimbro@dakopack.co.krCopyright</t>
+  </si>
+  <si>
+    <t>051-951-5001E-mailchungyeon@chungyeon.co.kr</t>
+  </si>
+  <si>
+    <t>nexusgallery@nexus-official.com</t>
+  </si>
+  <si>
+    <t>my.park@lawjibsa.com</t>
+  </si>
+  <si>
+    <t>pagelab@pagelab.kr</t>
+  </si>
+  <si>
+    <t>E.terrajmh@daum.net</t>
+  </si>
+  <si>
+    <t>afterpray@gmail.com</t>
+  </si>
+  <si>
+    <t>eghis@eghis.co.kr</t>
+  </si>
+  <si>
+    <t>sevyofficial@gmail.com</t>
+  </si>
+  <si>
+    <t>master@ustravel.kr</t>
+  </si>
+  <si>
+    <t>master@chaeul.com</t>
+  </si>
+  <si>
+    <t>fund@duksung.ac.kr</t>
+  </si>
+  <si>
+    <t>nalmedia@naver.com</t>
+  </si>
+  <si>
+    <t>mkt@decoview.co.kr</t>
+  </si>
+  <si>
+    <t>helper@mjplex.co.kr</t>
+  </si>
+  <si>
+    <t>master@altwell.co.kr</t>
+  </si>
+  <si>
+    <t>stimeup@addblue.co.kr</t>
+  </si>
+  <si>
+    <t>cho9798@tsis.co.kr</t>
+  </si>
+  <si>
+    <t>contact@dcamp.kr</t>
+  </si>
+  <si>
+    <t>support@toss.im</t>
+  </si>
+  <si>
+    <t>kimcy@otos.co.kr</t>
+  </si>
+  <si>
+    <t>comwiz@icomwiz.com</t>
+  </si>
+  <si>
+    <t>koreacyd@jlv.co.kr</t>
+  </si>
+  <si>
+    <t>mayres@mayfield.co.kr</t>
+  </si>
+  <si>
+    <t>sales@s-modul.com</t>
+  </si>
+  <si>
+    <t>pys@pybook.co.kr</t>
+  </si>
+  <si>
+    <t>planbmarketing@naver.com</t>
+  </si>
+  <si>
+    <t>mkroad@mkroad.comCOPYRIGHT</t>
+  </si>
+  <si>
+    <t>koreakiyon@glovebox.co.kr</t>
+  </si>
+  <si>
+    <t>david@stekorea.co.kr</t>
+  </si>
+  <si>
+    <t>admin@irondevice.com</t>
+  </si>
+  <si>
+    <t>dream-worker@nate.com</t>
+  </si>
+  <si>
+    <t>-MAIL.drawfit@naver.comBUSINESS</t>
+  </si>
+  <si>
+    <t>ampmglobal@ampm.co.kr</t>
+  </si>
+  <si>
+    <t>the-surch@the-surch.com</t>
+  </si>
+  <si>
+    <t>aloha@synergyx.co.kr</t>
+  </si>
+  <si>
+    <t>info@lapeoplekorea.com</t>
+  </si>
+  <si>
+    <t>twkim@linknscout.com</t>
+  </si>
+  <si>
+    <t>1234-567-8902office@example.comcontact</t>
+  </si>
+  <si>
+    <t>en.help@toomicsglobal.com</t>
+  </si>
+  <si>
+    <t>jinmobility@jinmobility.com</t>
+  </si>
+  <si>
+    <t>info@mepsgen.com</t>
+  </si>
+  <si>
+    <t>admin@staffs.co.kr</t>
+  </si>
+  <si>
+    <t>kundenrechte_mb@daimler.come</t>
+  </si>
+  <si>
+    <t>hr_mate@pinkfong.commade</t>
+  </si>
+  <si>
+    <t>dreamwha@hanmail.net</t>
+  </si>
+  <si>
+    <t>hr@ubsocius.com</t>
+  </si>
+  <si>
+    <t>recruit@infludeo.com</t>
+  </si>
+  <si>
+    <t>design@designroot.co.kr</t>
+  </si>
+  <si>
+    <t>imx@thequestion.co.kr</t>
+  </si>
+  <si>
+    <t>sd90@sd90.co.kr</t>
+  </si>
+  <si>
+    <t>webmaster@t-ime.com</t>
+  </si>
+  <si>
+    <t>firstactors@naver.com</t>
+  </si>
+  <si>
+    <t>blue@bluemeditech.com</t>
   </si>
 </sst>
 </file>
@@ -3124,11 +3626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46F479D-BB05-4F6C-B211-B27C9A990F3A}">
-  <dimension ref="A1:A512"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90533D98-A6A7-47A8-BDFE-EDD4854A21EF}">
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3140,2557 +3642,252 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
-        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -5701,11 +3898,3245 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A1BAD9-1AA8-4880-B83A-87656B114F2C}">
+  <dimension ref="A1:A58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C22353-9DD8-42CA-BFB5-F72064A2B11B}">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABFFE16-66B1-4B84-9670-980B072283E2}">
+  <dimension ref="A1:A73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46F479D-BB05-4F6C-B211-B27C9A990F3A}">
+  <dimension ref="A1:A502"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A51" sqref="A2:A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="U557" sqref="U557"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
